--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\hluvukani-odk-forms\Hluvukani_C_registrar_parcelas\Hluvukani_C_registrar_parcelas-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\illovo\ODK Forms\hluvukani-odk-forms\Hluvukani_C_registrar_parcelas\Hluvukani_C_registrar_parcelas-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5935,7 +5935,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,7 +5969,7 @@
         <v>408</v>
       </c>
       <c r="C2" s="8">
-        <v>201708151</v>
+        <v>201708152</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>410</v>

--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2038,7 +2038,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2199,21 +2199,24 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2792,10 +2795,10 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,27 +3266,27 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>489</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>490</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="81" t="s">
         <v>491</v>
       </c>
       <c r="H23" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="J23" s="82" t="s">
+      <c r="J23" s="81" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4056,11 +4059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4357,7 @@
       <c r="A26" s="72" t="s">
         <v>453</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="82" t="s">
         <v>486</v>
       </c>
       <c r="C26" s="72" t="s">
@@ -4369,7 +4372,7 @@
       <c r="A27" s="72" t="s">
         <v>453</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="83" t="s">
         <v>465</v>
       </c>
       <c r="C27" s="72" t="s">
@@ -4915,10 +4918,10 @@
       <c r="A81" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="77" t="s">
         <v>487</v>
       </c>
-      <c r="C81" s="79" t="s">
+      <c r="C81" s="78" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5260,7 +5263,7 @@
       <c r="A116" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="77">
+      <c r="B116" s="76">
         <v>1</v>
       </c>
       <c r="C116" s="33" t="s">
@@ -5934,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,7 +5972,7 @@
         <v>408</v>
       </c>
       <c r="C2" s="8">
-        <v>201708152</v>
+        <v>201708153</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>410</v>

--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="494">
   <si>
     <t>type</t>
   </si>
@@ -1562,14 +1562,24 @@
   <si>
     <t>Resposta invalida - O campo de nome não pode incluir um novo paragrafo. Faça a favor de eliminar qualquer linha adicional.</t>
   </si>
+  <si>
+    <t>regex(.,'[0-9]{6}')</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1801,422 +1811,427 @@
   </borders>
   <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2794,11 +2809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,23 +2989,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="84" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="J9" s="17" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="H9" s="86" t="s">
+        <v>493</v>
+      </c>
+      <c r="J9" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="86" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4059,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5938,7 +5955,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5972,7 +5989,7 @@
         <v>408</v>
       </c>
       <c r="C2" s="8">
-        <v>201708153</v>
+        <v>201708171</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>410</v>

--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1570,9 +1570,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1757,13 +1770,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1787,9 +1793,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1811,427 +1825,429 @@
   </borders>
   <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2809,7 +2825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2818,551 +2834,551 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="61.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="46.625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.125" style="17" customWidth="1"/>
-    <col min="13" max="13" width="47.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="29.25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="61.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="27" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="47.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="22" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="21" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="67" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="69" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:16" s="67" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="I4" s="67"/>
-    </row>
-    <row r="5" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="66" t="s">
         <v>415</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+    <row r="7" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+    <row r="9" spans="1:16" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="82" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="H9" s="86" t="s">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="H9" s="84" t="s">
         <v>493</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="84" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="J10" s="17" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="J10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="J12" s="17" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="J12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="J15" s="17" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="J15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="J18" s="17" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="J18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="J19" s="17" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="J19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="J20" s="17" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="J20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="J22" s="17" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="J22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="77" t="s">
         <v>490</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="81" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="79" t="s">
         <v>491</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="I23" s="79" t="s">
+      <c r="I23" s="77" t="s">
         <v>492</v>
       </c>
-      <c r="J23" s="81" t="s">
+      <c r="J23" s="79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>331</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="L27" s="65" t="s">
         <v>481</v>
       </c>
     </row>
@@ -3370,494 +3386,494 @@
       <c r="A28" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L28" s="59"/>
+      <c r="L28" s="58"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+    <row r="30" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>332</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="G31" s="59"/>
-    </row>
-    <row r="32" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+    <row r="33" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="58" t="s">
+      <c r="I33" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="58" t="s">
+      <c r="J33" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+    <row r="34" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="J34" s="58" t="s">
+      <c r="J34" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+    <row r="35" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="I35" s="58"/>
-      <c r="J35" s="59" t="s">
+      <c r="I35" s="57"/>
+      <c r="J35" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="59" t="s">
+      <c r="L35" s="58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+    <row r="36" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="58"/>
-      <c r="J36" s="59" t="s">
+      <c r="I36" s="57"/>
+      <c r="J36" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="59" t="s">
+      <c r="L36" s="58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="58"/>
-      <c r="I37" s="58"/>
-    </row>
-    <row r="38" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
+      <c r="B37" s="62"/>
+      <c r="C37" s="57"/>
+      <c r="I37" s="57"/>
+    </row>
+    <row r="38" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+    <row r="39" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-    </row>
-    <row r="40" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+    </row>
+    <row r="40" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="I40" s="58"/>
-      <c r="L40" s="59" t="s">
+      <c r="I40" s="57"/>
+      <c r="L40" s="58" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="K41" s="59" t="s">
+      <c r="K41" s="58" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
+    <row r="42" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="57" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="63"/>
-    </row>
-    <row r="44" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="B43" s="62"/>
+    </row>
+    <row r="44" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59" t="s">
+      <c r="I44" s="57"/>
+      <c r="J44" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+    <row r="45" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="I45" s="58"/>
-      <c r="L45" s="59" t="s">
+      <c r="I45" s="57"/>
+      <c r="L45" s="58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+    <row r="46" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="I46" s="58"/>
-      <c r="L46" s="59" t="s">
+      <c r="I46" s="57"/>
+      <c r="L46" s="58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="L47" s="58" t="s">
+      <c r="L47" s="57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="58" t="s">
+    <row r="48" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="J48" s="58" t="s">
+      <c r="J48" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="58" t="s">
+      <c r="L48" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58" t="s">
+    <row r="49" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="I49" s="58" t="s">
+      <c r="I49" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="J49" s="58" t="s">
+      <c r="J49" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+    <row r="50" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="I50" s="58" t="s">
+      <c r="I50" s="57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+    <row r="51" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="L51" s="59" t="s">
+      <c r="L51" s="58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
+    <row r="52" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="L52" s="59" t="s">
+      <c r="L52" s="58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+    <row r="53" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="G53" s="65" t="s">
+      <c r="G53" s="64" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="63"/>
-    </row>
-    <row r="55" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
+      <c r="B54" s="62"/>
+    </row>
+    <row r="55" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="62" t="s">
         <v>366</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="57" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
+    <row r="56" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="57" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
+    <row r="57" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="J57" s="58" t="s">
+      <c r="J57" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L57" s="58" t="s">
+      <c r="L57" s="57" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
+    <row r="58" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="H58" s="58" t="s">
+      <c r="H58" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="L58" s="58" t="s">
+      <c r="L58" s="57" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3865,66 +3881,66 @@
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
         <v>262</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="G62" s="59"/>
-      <c r="L62" s="17" t="s">
+      <c r="G62" s="58"/>
+      <c r="L62" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="17" t="s">
+      <c r="I63" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J63" s="17" t="s">
+      <c r="J63" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="J64" s="17" t="s">
+      <c r="H64" s="18"/>
+      <c r="J64" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L64" s="17" t="s">
+      <c r="L64" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3932,98 +3948,98 @@
       <c r="A65" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H65" s="19"/>
-    </row>
-    <row r="66" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="19" t="s">
+      <c r="L66" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+    <row r="67" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="28"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="J68" s="17" t="s">
+      <c r="D68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="J68" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="30" t="s">
         <v>333</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="F71" s="19" t="s">
+      <c r="D71" s="18"/>
+      <c r="F71" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="M72" s="52" t="s">
+      <c r="M72" s="51" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4033,36 +4049,36 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="69" t="s">
         <v>414</v>
       </c>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="56" t="s">
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="J75" s="55" t="s">
+      <c r="J75" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="29" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4086,7 +4102,7 @@
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="13" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="41.625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.875" style="5"/>
@@ -4096,7 +4112,7 @@
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4108,395 +4124,395 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="67" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="67" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="71" t="s">
         <v>429</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="67" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="70" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="71" t="s">
         <v>437</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="70" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="70" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>441</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="70" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="71" t="s">
         <v>443</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="70" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="70" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="70" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+    <row r="18" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="70" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+    <row r="19" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="70" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-    </row>
-    <row r="21" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+    <row r="20" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="71"/>
+    </row>
+    <row r="21" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="71" t="s">
         <v>454</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="70" t="s">
         <v>455</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="E21" s="75"/>
-    </row>
-    <row r="22" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="E21" s="73"/>
+    </row>
+    <row r="22" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="70" t="s">
         <v>457</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="E22" s="75"/>
-    </row>
-    <row r="23" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="E22" s="73"/>
+    </row>
+    <row r="23" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="E23" s="75"/>
-    </row>
-    <row r="24" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="E23" s="73"/>
+    </row>
+    <row r="24" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="71" t="s">
         <v>460</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="70" t="s">
         <v>461</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="E24" s="75"/>
-    </row>
-    <row r="25" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="E24" s="73"/>
+    </row>
+    <row r="25" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="E25" s="75"/>
-    </row>
-    <row r="26" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="E25" s="73"/>
+    </row>
+    <row r="26" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="80" t="s">
         <v>486</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="70" t="s">
         <v>464</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="E26" s="75"/>
-    </row>
-    <row r="27" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="E26" s="73"/>
+    </row>
+    <row r="27" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="81" t="s">
         <v>465</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="E27" s="75"/>
-    </row>
-    <row r="28" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+      <c r="E27" s="73"/>
+    </row>
+    <row r="28" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="71" t="s">
         <v>467</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="E28" s="75"/>
-    </row>
-    <row r="29" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="E28" s="73"/>
+    </row>
+    <row r="29" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="71" t="s">
         <v>469</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="E29" s="75"/>
-    </row>
-    <row r="30" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+      <c r="E29" s="73"/>
+    </row>
+    <row r="30" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="E30" s="75"/>
-    </row>
-    <row r="31" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="E30" s="73"/>
+    </row>
+    <row r="31" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="71" t="s">
         <v>473</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="E31" s="75"/>
+      <c r="E31" s="73"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="41"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="44"/>
+      <c r="B35" s="43"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -4504,10 +4520,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -4515,10 +4531,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -4526,10 +4542,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -4537,10 +4553,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -4548,21 +4564,21 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="71" t="s">
         <v>475</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="70" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -4570,13 +4586,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="44"/>
+      <c r="B43" s="43"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -4584,21 +4600,21 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="44" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -4606,10 +4622,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="44" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -4617,10 +4633,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -4628,10 +4644,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="44" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -4639,21 +4655,21 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="44" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -4661,10 +4677,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="44" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -4672,10 +4688,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -4683,21 +4699,21 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -4705,49 +4721,49 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="44"/>
+      <c r="B56" s="43"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="44"/>
+      <c r="B60" s="43"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -4755,10 +4771,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="44" t="s">
         <v>81</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -4766,10 +4782,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="44" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -4777,10 +4793,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>83</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -4788,13 +4804,13 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="44"/>
+      <c r="B65" s="43"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="44" t="s">
         <v>89</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -4802,10 +4818,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -4813,10 +4829,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="44" t="s">
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -4824,10 +4840,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="44" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -4835,38 +4851,38 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="44"/>
+      <c r="B70" s="43"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="44"/>
+      <c r="B73" s="43"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -4874,10 +4890,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="39" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -4885,10 +4901,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="39" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -4896,10 +4912,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="39" t="s">
         <v>120</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -4907,93 +4923,93 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="44"/>
+      <c r="B78" s="43"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="38" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="75" t="s">
         <v>487</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="76" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="44"/>
+      <c r="B86" s="43"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="45" t="s">
         <v>167</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -5001,10 +5017,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="45" t="s">
         <v>168</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -5012,10 +5028,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="45" t="s">
         <v>169</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -5023,10 +5039,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -5034,198 +5050,198 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="44"/>
+      <c r="B91" s="43"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="19" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="19" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="19" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="19" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="19" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="19" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="19" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="19" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="44"/>
+      <c r="B103" s="43"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="19" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="71" t="s">
         <v>479</v>
       </c>
-      <c r="C105" s="72" t="s">
+      <c r="C105" s="70" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B106" s="73" t="s">
+      <c r="B106" s="71" t="s">
         <v>480</v>
       </c>
-      <c r="C106" s="72" t="s">
+      <c r="C106" s="70" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B107" s="46" t="s">
+      <c r="B107" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="19" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="19" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="44"/>
+      <c r="B109" s="43"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B110" s="44" t="s">
+      <c r="B110" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="C110" s="33" t="s">
+      <c r="C110" s="32" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5233,10 +5249,10 @@
       <c r="A111" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B111" s="44" t="s">
+      <c r="B111" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C111" s="33" t="s">
+      <c r="C111" s="32" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5244,10 +5260,10 @@
       <c r="A112" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B112" s="44" t="s">
+      <c r="B112" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="C112" s="33" t="s">
+      <c r="C112" s="32" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5255,693 +5271,693 @@
       <c r="A113" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="32" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="44"/>
+      <c r="B114" s="43"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="47" t="s">
+      <c r="B115" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="32" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="76">
+      <c r="B116" s="74">
         <v>1</v>
       </c>
-      <c r="C116" s="33" t="s">
+      <c r="C116" s="32" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="44"/>
+      <c r="B117" s="43"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C118" s="37" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="37" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="37" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="37" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="37" t="s">
+      <c r="A122" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B122" s="48" t="s">
+      <c r="B122" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="37" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
+      <c r="A123" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="37" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
+      <c r="A124" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B124" s="48" t="s">
+      <c r="B124" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="37" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B125" s="48" t="s">
+      <c r="B125" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="37" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="37" t="s">
+      <c r="A126" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="37" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B127" s="48" t="s">
+      <c r="B127" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="C127" s="54" t="s">
+      <c r="C127" s="53" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="44"/>
+      <c r="B128" s="43"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="61" t="s">
+      <c r="A129" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B129" s="62" t="s">
+      <c r="B129" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="C129" s="61" t="s">
+      <c r="C129" s="60" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="61" t="s">
+      <c r="A130" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="62" t="s">
+      <c r="B130" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C130" s="61" t="s">
+      <c r="C130" s="60" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="61" t="s">
+      <c r="A131" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B131" s="62" t="s">
+      <c r="B131" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="C131" s="61" t="s">
+      <c r="C131" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="61" t="s">
+      <c r="A132" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="62" t="s">
+      <c r="B132" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="C132" s="61" t="s">
+      <c r="C132" s="60" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="61" t="s">
+      <c r="A133" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B133" s="62" t="s">
+      <c r="B133" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="C133" s="61" t="s">
+      <c r="C133" s="60" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="61" t="s">
+      <c r="A134" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B134" s="62" t="s">
+      <c r="B134" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="C134" s="61" t="s">
+      <c r="C134" s="60" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="61" t="s">
+      <c r="A135" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B135" s="62" t="s">
+      <c r="B135" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="C135" s="61" t="s">
+      <c r="C135" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="61" t="s">
+      <c r="A136" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B136" s="62" t="s">
+      <c r="B136" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="C136" s="61" t="s">
+      <c r="C136" s="60" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="61" t="s">
+      <c r="A137" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B137" s="62" t="s">
+      <c r="B137" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="C137" s="61" t="s">
+      <c r="C137" s="60" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="61" t="s">
+      <c r="A138" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B138" s="62" t="s">
+      <c r="B138" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="C138" s="61" t="s">
+      <c r="C138" s="60" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="61" t="s">
+      <c r="A139" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B139" s="62" t="s">
+      <c r="B139" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="C139" s="61" t="s">
+      <c r="C139" s="60" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="44"/>
+      <c r="B140" s="43"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="61" t="s">
+      <c r="A141" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="B141" s="62" t="s">
+      <c r="B141" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C141" s="61" t="s">
+      <c r="C141" s="60" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="61" t="s">
+      <c r="A142" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="B142" s="62" t="s">
+      <c r="B142" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C142" s="61" t="s">
+      <c r="C142" s="60" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
-      <c r="B143" s="61" t="s">
+      <c r="A143" s="60"/>
+      <c r="B143" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="C143" s="61"/>
+      <c r="C143" s="60"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="61" t="s">
+      <c r="A144" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="B144" s="62" t="s">
+      <c r="B144" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="C144" s="61" t="s">
+      <c r="C144" s="60" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="61" t="s">
+      <c r="A145" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="B145" s="62" t="s">
+      <c r="B145" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C145" s="61" t="s">
+      <c r="C145" s="60" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="61" t="s">
+      <c r="A146" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="62" t="s">
+      <c r="B146" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="C146" s="61" t="s">
+      <c r="C146" s="60" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="61"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="61"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="60"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="61" t="s">
+      <c r="A148" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C148" s="61" t="s">
+      <c r="C148" s="60" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="61" t="s">
+      <c r="A149" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="B149" s="62" t="s">
+      <c r="B149" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C149" s="61" t="s">
+      <c r="C149" s="60" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="61" t="s">
+      <c r="A150" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="B150" s="62" t="s">
+      <c r="B150" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="61" t="s">
+      <c r="C150" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="61" t="s">
+      <c r="A151" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="B151" s="62" t="s">
+      <c r="B151" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C151" s="61" t="s">
+      <c r="C151" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="61" t="s">
+      <c r="A152" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="B152" s="62" t="s">
+      <c r="B152" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="61" t="s">
+      <c r="C152" s="60" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="61"/>
-      <c r="B153" s="62"/>
-      <c r="C153" s="61"/>
+      <c r="A153" s="60"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="60"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="61" t="s">
+      <c r="A154" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B154" s="62" t="s">
+      <c r="B154" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="61" t="s">
+      <c r="C154" s="60" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="61" t="s">
+      <c r="A155" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B155" s="62" t="s">
+      <c r="B155" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="C155" s="61" t="s">
+      <c r="C155" s="60" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="61" t="s">
+      <c r="A156" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B156" s="62" t="s">
+      <c r="B156" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="C156" s="61" t="s">
+      <c r="C156" s="60" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="61" t="s">
+      <c r="A157" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B157" s="62" t="s">
+      <c r="B157" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="C157" s="61" t="s">
+      <c r="C157" s="60" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="61" t="s">
+      <c r="A158" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B158" s="62" t="s">
+      <c r="B158" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="C158" s="61" t="s">
+      <c r="C158" s="60" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="61" t="s">
+      <c r="A159" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B159" s="62" t="s">
+      <c r="B159" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="C159" s="61" t="s">
+      <c r="C159" s="60" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="61" t="s">
+      <c r="A160" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B160" s="62" t="s">
+      <c r="B160" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="C160" s="61" t="s">
+      <c r="C160" s="60" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="61" t="s">
+      <c r="A161" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B161" s="62" t="s">
+      <c r="B161" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="C161" s="61" t="s">
+      <c r="C161" s="60" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="61" t="s">
+      <c r="A162" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B162" s="62" t="s">
+      <c r="B162" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="C162" s="61" t="s">
+      <c r="C162" s="60" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="61" t="s">
+      <c r="A163" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B163" s="62" t="s">
+      <c r="B163" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="61" t="s">
+      <c r="C163" s="60" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="61" t="s">
+      <c r="A164" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B164" s="62" t="s">
+      <c r="B164" s="61" t="s">
         <v>396</v>
       </c>
-      <c r="C164" s="61" t="s">
+      <c r="C164" s="60" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="61" t="s">
+      <c r="A165" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B165" s="62" t="s">
+      <c r="B165" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="C165" s="61" t="s">
+      <c r="C165" s="60" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="61" t="s">
+      <c r="A166" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B166" s="62" t="s">
+      <c r="B166" s="61" t="s">
         <v>400</v>
       </c>
-      <c r="C166" s="61" t="s">
+      <c r="C166" s="60" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="61" t="s">
+      <c r="A167" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B167" s="62" t="s">
+      <c r="B167" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="C167" s="61" t="s">
+      <c r="C167" s="60" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="61" t="s">
+      <c r="A168" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B168" s="62" t="s">
+      <c r="B168" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="C168" s="61" t="s">
+      <c r="C168" s="60" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="61" t="s">
+      <c r="A169" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B169" s="62" t="s">
+      <c r="B169" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="C169" s="61" t="s">
+      <c r="C169" s="60" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="61" t="s">
+      <c r="A170" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="B170" s="62" t="s">
+      <c r="B170" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C170" s="61" t="s">
+      <c r="C170" s="60" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="44"/>
+      <c r="B171" s="43"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="44"/>
+      <c r="B172" s="43"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="44"/>
+      <c r="B173" s="43"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="44"/>
+      <c r="B174" s="43"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="44"/>
+      <c r="B175" s="43"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="44"/>
+      <c r="B176" s="43"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="44"/>
+      <c r="B177" s="43"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="44"/>
+      <c r="B178" s="43"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="44"/>
+      <c r="B179" s="43"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="44"/>
+      <c r="B180" s="43"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="44"/>
+      <c r="B181" s="43"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="44"/>
+      <c r="B182" s="43"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="44"/>
+      <c r="B183" s="43"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="44"/>
+      <c r="B184" s="43"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="44"/>
+      <c r="B185" s="43"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="44"/>
+      <c r="B186" s="43"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="44"/>
+      <c r="B187" s="43"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="44"/>
+      <c r="B188" s="43"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="44"/>
+      <c r="B189" s="43"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="44"/>
+      <c r="B190" s="43"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="44"/>
+      <c r="B191" s="43"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="44"/>
+      <c r="B192" s="43"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="44"/>
+      <c r="B193" s="43"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="44"/>
+      <c r="B194" s="43"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="44"/>
+      <c r="B195" s="43"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="44"/>
+      <c r="B196" s="43"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="44"/>
+      <c r="B197" s="43"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="44"/>
+      <c r="B198" s="43"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="44"/>
+      <c r="B199" s="43"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="44"/>
+      <c r="B200" s="43"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="44"/>
+      <c r="B201" s="43"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="44"/>
+      <c r="B202" s="43"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="44"/>
+      <c r="B203" s="43"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="44"/>
+      <c r="B204" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C34"/>
@@ -5954,44 +5970,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="36.875" style="86" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="86" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="86" customWidth="1"/>
+    <col min="4" max="4" width="49.875" style="86" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="86" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="87" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="C2" s="8">
-        <v>201708171</v>
-      </c>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="85">
+        <v>201710251</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>410</v>
       </c>
     </row>

--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -5971,7 +5971,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,7 +6005,7 @@
         <v>408</v>
       </c>
       <c r="C2" s="85">
-        <v>201710251</v>
+        <v>201711011</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>410</v>

--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\illovo\ODK Forms\hluvukani-odk-forms\Hluvukani_C_registrar_parcelas\Hluvukani_C_registrar_parcelas-media\"/>
@@ -2823,6 +2823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4090,6 +4091,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5968,10 +5970,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,7 +6008,7 @@
         <v>408</v>
       </c>
       <c r="C2" s="85">
-        <v>201711011</v>
+        <v>2017110601</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>410</v>

--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7380" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1583,13 +1583,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2483,10 +2483,10 @@
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="233"/>
-    <cellStyle name="Normal 3" xfId="234"/>
-    <cellStyle name="Normal 3 2" xfId="235"/>
-    <cellStyle name="Normal 3 2 2" xfId="236"/>
+    <cellStyle name="Normal 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Normal 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Normal 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2822,7 +2822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P76"/>
   <sheetViews>
@@ -2833,28 +2833,28 @@
       <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="29" customWidth="1"/>
-    <col min="3" max="3" width="61.625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="29.19921875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="61.59765625" style="16" customWidth="1"/>
     <col min="4" max="4" width="27" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="46.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="46.59765625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.59765625" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="69.09765625" style="16" customWidth="1"/>
     <col min="13" max="13" width="47.5" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.09765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="21" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>95</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="67" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="67" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>32</v>
       </c>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
         <v>34</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>17</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>417</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>420</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="84" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
         <v>27</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>97</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>103</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>106</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>115</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>103</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>171</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>27</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>143</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>146</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>151</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>129</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>27</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>31</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>159</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>27</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>156</v>
       </c>
@@ -3383,13 +3383,13 @@
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>161</v>
       </c>
       <c r="L28" s="58"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>103</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>31</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>159</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="G31" s="58"/>
     </row>
-    <row r="32" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>186</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
         <v>27</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
         <v>27</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57" t="s">
         <v>195</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
         <v>198</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>187</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="C37" s="57"/>
       <c r="I37" s="57"/>
     </row>
-    <row r="38" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="57" t="s">
         <v>335</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="57" t="s">
         <v>27</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
     </row>
-    <row r="40" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>186</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57" t="s">
         <v>27</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="57" t="s">
         <v>27</v>
       </c>
@@ -3621,13 +3621,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>187</v>
       </c>
       <c r="B43" s="62"/>
     </row>
-    <row r="44" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
         <v>103</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="58" t="s">
         <v>17</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="57" t="s">
         <v>353</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>186</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="57" t="s">
         <v>249</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="57" t="s">
         <v>27</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="57" t="s">
         <v>27</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57" t="s">
         <v>17</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="57" t="s">
         <v>17</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="57" t="s">
         <v>103</v>
       </c>
@@ -3791,13 +3791,13 @@
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>187</v>
       </c>
       <c r="B54" s="62"/>
     </row>
-    <row r="55" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="57" t="s">
         <v>162</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="57" t="s">
         <v>162</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="57" t="s">
         <v>162</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="57" t="s">
         <v>27</v>
       </c>
@@ -3853,12 +3853,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>31</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>186</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>27</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>256</v>
       </c>
@@ -3945,13 +3945,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>162</v>
       </c>
@@ -3968,13 +3968,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B67" s="28"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>177</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>103</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>159</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>177</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>95</v>
       </c>
@@ -4044,12 +4044,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>32</v>
       </c>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>162</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>176</v>
       </c>
@@ -4090,7 +4090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E204"/>
   <sheetViews>
@@ -4101,16 +4101,16 @@
       <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="13" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="4" max="4" width="41.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.8984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4124,12 +4124,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
         <v>18</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>18</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>18</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>18</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>18</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>18</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
         <v>18</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
         <v>18</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>18</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
         <v>18</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>18</v>
       </c>
@@ -4272,12 +4272,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="39"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
         <v>449</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
         <v>449</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
         <v>449</v>
       </c>
@@ -4310,10 +4310,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="71"/>
     </row>
-    <row r="21" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
         <v>453</v>
       </c>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="E21" s="73"/>
     </row>
-    <row r="22" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
         <v>453</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="E22" s="73"/>
     </row>
-    <row r="23" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
         <v>453</v>
       </c>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="E23" s="73"/>
     </row>
-    <row r="24" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
         <v>453</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E24" s="73"/>
     </row>
-    <row r="25" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
         <v>453</v>
       </c>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="E25" s="73"/>
     </row>
-    <row r="26" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
         <v>453</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="E26" s="73"/>
     </row>
-    <row r="27" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
         <v>453</v>
       </c>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="E27" s="73"/>
     </row>
-    <row r="28" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="70" t="s">
         <v>453</v>
       </c>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="E28" s="73"/>
     </row>
-    <row r="29" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="70" t="s">
         <v>453</v>
       </c>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="E29" s="73"/>
     </row>
-    <row r="30" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
         <v>453</v>
       </c>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="E30" s="73"/>
     </row>
-    <row r="31" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
         <v>453</v>
       </c>
@@ -4478,12 +4478,12 @@
       </c>
       <c r="E31" s="73"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="40"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
@@ -4507,10 +4507,10 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="43"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>41</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>41</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>41</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>41</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>41</v>
       </c>
@@ -4587,10 +4587,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="43"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>69</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>69</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>69</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>69</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>69</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>69</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>69</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>69</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>69</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>69</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>69</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>69</v>
       </c>
@@ -4722,10 +4722,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="43"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>70</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>70</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>70</v>
       </c>
@@ -4758,10 +4758,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="43"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>75</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>75</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>75</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>75</v>
       </c>
@@ -4805,10 +4805,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" s="43"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>84</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>84</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>84</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>84</v>
       </c>
@@ -4852,10 +4852,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B70" s="43"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>107</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>107</v>
       </c>
@@ -4877,10 +4877,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B73" s="43"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>116</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>116</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>116</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>116</v>
       </c>
@@ -4924,10 +4924,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" s="43"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>132</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>132</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>132</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>132</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>132</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>132</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>132</v>
       </c>
@@ -5004,10 +5004,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="43"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>170</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
         <v>170</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>170</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>170</v>
       </c>
@@ -5051,10 +5051,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B91" s="43"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>226</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>226</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>226</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>226</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
         <v>226</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>226</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>226</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>226</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>226</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>226</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
         <v>226</v>
       </c>
@@ -5175,10 +5175,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B103" s="43"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>257</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>257</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
         <v>257</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>257</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>257</v>
       </c>
@@ -5233,10 +5233,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B109" s="43"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>281</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>281</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>281</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>281</v>
       </c>
@@ -5280,10 +5280,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B114" s="43"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
         <v>130</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>130</v>
       </c>
@@ -5305,10 +5305,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B117" s="43"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="36" t="s">
         <v>294</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
         <v>294</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="36" t="s">
         <v>294</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="36" t="s">
         <v>294</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="36" t="s">
         <v>294</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="36" t="s">
         <v>294</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="36" t="s">
         <v>294</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="36" t="s">
         <v>294</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="36" t="s">
         <v>294</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="36" t="s">
         <v>294</v>
       </c>
@@ -5418,10 +5418,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" s="43"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="60" t="s">
         <v>226</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="60" t="s">
         <v>226</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="60" t="s">
         <v>226</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="60" t="s">
         <v>226</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="60" t="s">
         <v>226</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="60" t="s">
         <v>226</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="60" t="s">
         <v>226</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="60" t="s">
         <v>226</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="60" t="s">
         <v>226</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="60" t="s">
         <v>226</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="60" t="s">
         <v>226</v>
       </c>
@@ -5542,10 +5542,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B140" s="43"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="60" t="s">
         <v>201</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="60" t="s">
         <v>201</v>
       </c>
@@ -5567,14 +5567,14 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="60"/>
       <c r="B143" s="60" t="s">
         <v>206</v>
       </c>
       <c r="C143" s="60"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="60" t="s">
         <v>207</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="60" t="s">
         <v>207</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="60" t="s">
         <v>207</v>
       </c>
@@ -5607,12 +5607,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="60"/>
       <c r="B147" s="61"/>
       <c r="C147" s="60"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="60" t="s">
         <v>214</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="60" t="s">
         <v>214</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="60" t="s">
         <v>214</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="60" t="s">
         <v>214</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="60" t="s">
         <v>214</v>
       </c>
@@ -5667,12 +5667,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="60"/>
       <c r="B153" s="61"/>
       <c r="C153" s="60"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="60" t="s">
         <v>375</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="60" t="s">
         <v>375</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="60" t="s">
         <v>375</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="60" t="s">
         <v>375</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="60" t="s">
         <v>375</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="60" t="s">
         <v>375</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="60" t="s">
         <v>375</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="60" t="s">
         <v>375</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="60" t="s">
         <v>375</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="60" t="s">
         <v>375</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="60" t="s">
         <v>375</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="60" t="s">
         <v>375</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="60" t="s">
         <v>375</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="60" t="s">
         <v>375</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="60" t="s">
         <v>375</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="60" t="s">
         <v>375</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="60" t="s">
         <v>375</v>
       </c>
@@ -5859,117 +5859,117 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B171" s="43"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B172" s="43"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B173" s="43"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B174" s="43"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B175" s="43"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B176" s="43"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="43"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="43"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="43"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="43"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="43"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="43"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="43"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="43"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="43"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="43"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="43"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="43"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="43"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="43"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="43"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="43"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="43"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="43"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="43"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="43"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="43"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="43"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="43"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="43"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="43"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="43"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="43"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C34"/>
+  <autoFilter ref="A1:C34" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5977,16 +5977,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.875" style="86" customWidth="1"/>
+    <col min="1" max="1" width="36.8984375" style="86" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="86" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="86" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="86" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="86" customWidth="1"/>
+    <col min="4" max="4" width="49.8984375" style="86" customWidth="1"/>
     <col min="5" max="16384" width="11" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>19</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="87" t="s">
         <v>409</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>408</v>
       </c>
       <c r="C2" s="85">
-        <v>2017110601</v>
+        <v>201711131</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>410</v>

--- a/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
+++ b/Hluvukani_C_registrar_parcelas/Hluvukani_C_registrar_parcelas-media/Hluvukani_C_registrar_parcelas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="495">
   <si>
     <t>type</t>
   </si>
@@ -1565,14 +1565,24 @@
   <si>
     <t>regex(.,'[0-9]{6}')</t>
   </si>
+  <si>
+    <t>maps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1825,429 +1835,430 @@
   </borders>
   <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2827,10 +2838,10 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3989,6 +4000,9 @@
       <c r="J68" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="L68" s="89" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
@@ -4031,6 +4045,9 @@
       <c r="D71" s="18"/>
       <c r="F71" s="18" t="s">
         <v>182</v>
+      </c>
+      <c r="L71" s="89" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -6008,7 +6025,7 @@
         <v>408</v>
       </c>
       <c r="C2" s="85">
-        <v>201711131</v>
+        <v>201801081</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>410</v>
